--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Bgn-Fgfr3.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Bgn-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.6966009557516</v>
+        <v>42.517849</v>
       </c>
       <c r="H2">
-        <v>10.6966009557516</v>
+        <v>127.553547</v>
       </c>
       <c r="I2">
-        <v>0.005997192074151014</v>
+        <v>0.02311569285614191</v>
       </c>
       <c r="J2">
-        <v>0.005997192074151014</v>
+        <v>0.02311569285614191</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.19458905698576</v>
+        <v>4.220261333333333</v>
       </c>
       <c r="N2">
-        <v>1.19458905698576</v>
+        <v>12.660784</v>
       </c>
       <c r="O2">
-        <v>0.6392567238992268</v>
+        <v>0.6739259863235564</v>
       </c>
       <c r="P2">
-        <v>0.6392567238992268</v>
+        <v>0.6739259863235564</v>
       </c>
       <c r="Q2">
-        <v>12.77804244868428</v>
+        <v>179.4364341112053</v>
       </c>
       <c r="R2">
-        <v>12.77804244868428</v>
+        <v>1614.927907000848</v>
       </c>
       <c r="S2">
-        <v>0.003833745357916186</v>
+        <v>0.01557826610762783</v>
       </c>
       <c r="T2">
-        <v>0.003833745357916186</v>
+        <v>0.01557826610762782</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.6966009557516</v>
+        <v>42.517849</v>
       </c>
       <c r="H3">
-        <v>10.6966009557516</v>
+        <v>127.553547</v>
       </c>
       <c r="I3">
-        <v>0.005997192074151014</v>
+        <v>0.02311569285614191</v>
       </c>
       <c r="J3">
-        <v>0.005997192074151014</v>
+        <v>0.02311569285614191</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.674126612830294</v>
+        <v>1.296447666666667</v>
       </c>
       <c r="N3">
-        <v>0.674126612830294</v>
+        <v>3.889343</v>
       </c>
       <c r="O3">
-        <v>0.3607432761007731</v>
+        <v>0.2070274097896007</v>
       </c>
       <c r="P3">
-        <v>0.3607432761007731</v>
+        <v>0.2070274097896007</v>
       </c>
       <c r="Q3">
-        <v>7.210863371098112</v>
+        <v>55.12216612773567</v>
       </c>
       <c r="R3">
-        <v>7.210863371098112</v>
+        <v>496.099495149621</v>
       </c>
       <c r="S3">
-        <v>0.002163446716234827</v>
+        <v>0.004785582017499037</v>
       </c>
       <c r="T3">
-        <v>0.002163446716234827</v>
+        <v>0.004785582017499036</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1639.33485019011</v>
+        <v>42.517849</v>
       </c>
       <c r="H4">
-        <v>1639.33485019011</v>
+        <v>127.553547</v>
       </c>
       <c r="I4">
-        <v>0.9191149610150957</v>
+        <v>0.02311569285614191</v>
       </c>
       <c r="J4">
-        <v>0.9191149610150957</v>
+        <v>0.02311569285614191</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.19458905698576</v>
+        <v>0.745494</v>
       </c>
       <c r="N4">
-        <v>1.19458905698576</v>
+        <v>2.236482</v>
       </c>
       <c r="O4">
-        <v>0.6392567238992268</v>
+        <v>0.119046603886843</v>
       </c>
       <c r="P4">
-        <v>0.6392567238992268</v>
+        <v>0.119046603886843</v>
       </c>
       <c r="Q4">
-        <v>1958.331472772496</v>
+        <v>31.696801322406</v>
       </c>
       <c r="R4">
-        <v>1958.331472772496</v>
+        <v>285.271211901654</v>
       </c>
       <c r="S4">
-        <v>0.5875504188652757</v>
+        <v>0.002751844731015054</v>
       </c>
       <c r="T4">
-        <v>0.5875504188652757</v>
+        <v>0.002751844731015053</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1639.33485019011</v>
+        <v>1644.738728666666</v>
       </c>
       <c r="H5">
-        <v>1639.33485019011</v>
+        <v>4934.216186</v>
       </c>
       <c r="I5">
-        <v>0.9191149610150957</v>
+        <v>0.8941956419399297</v>
       </c>
       <c r="J5">
-        <v>0.9191149610150957</v>
+        <v>0.8941956419399296</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.674126612830294</v>
+        <v>4.220261333333333</v>
       </c>
       <c r="N5">
-        <v>0.674126612830294</v>
+        <v>12.660784</v>
       </c>
       <c r="O5">
-        <v>0.3607432761007731</v>
+        <v>0.6739259863235564</v>
       </c>
       <c r="P5">
-        <v>0.3607432761007731</v>
+        <v>0.6739259863235564</v>
       </c>
       <c r="Q5">
-        <v>1105.119249853316</v>
+        <v>6941.227260027757</v>
       </c>
       <c r="R5">
-        <v>1105.119249853316</v>
+        <v>62471.04534024982</v>
       </c>
       <c r="S5">
-        <v>0.33156454214982</v>
+        <v>0.6026216799605928</v>
       </c>
       <c r="T5">
-        <v>0.33156454214982</v>
+        <v>0.6026216799605927</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>133.570078285869</v>
+        <v>1644.738728666666</v>
       </c>
       <c r="H6">
-        <v>133.570078285869</v>
+        <v>4934.216186</v>
       </c>
       <c r="I6">
-        <v>0.07488784691075336</v>
+        <v>0.8941956419399297</v>
       </c>
       <c r="J6">
-        <v>0.07488784691075336</v>
+        <v>0.8941956419399296</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.19458905698576</v>
+        <v>1.296447666666667</v>
       </c>
       <c r="N6">
-        <v>1.19458905698576</v>
+        <v>3.889343</v>
       </c>
       <c r="O6">
-        <v>0.6392567238992268</v>
+        <v>0.2070274097896007</v>
       </c>
       <c r="P6">
-        <v>0.6392567238992268</v>
+        <v>0.2070274097896007</v>
       </c>
       <c r="Q6">
-        <v>159.5613538610304</v>
+        <v>2132.3176870562</v>
       </c>
       <c r="R6">
-        <v>159.5613538610304</v>
+        <v>19190.8591835058</v>
       </c>
       <c r="S6">
-        <v>0.04787255967603502</v>
+        <v>0.1851230075959729</v>
       </c>
       <c r="T6">
-        <v>0.04787255967603502</v>
+        <v>0.1851230075959729</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>133.570078285869</v>
+        <v>1644.738728666666</v>
       </c>
       <c r="H7">
-        <v>133.570078285869</v>
+        <v>4934.216186</v>
       </c>
       <c r="I7">
-        <v>0.07488784691075336</v>
+        <v>0.8941956419399297</v>
       </c>
       <c r="J7">
-        <v>0.07488784691075336</v>
+        <v>0.8941956419399296</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.674126612830294</v>
+        <v>0.745494</v>
       </c>
       <c r="N7">
-        <v>0.674126612830294</v>
+        <v>2.236482</v>
       </c>
       <c r="O7">
-        <v>0.3607432761007731</v>
+        <v>0.119046603886843</v>
       </c>
       <c r="P7">
-        <v>0.3607432761007731</v>
+        <v>0.119046603886843</v>
       </c>
       <c r="Q7">
-        <v>90.04314445033006</v>
+        <v>1226.142853788628</v>
       </c>
       <c r="R7">
-        <v>90.04314445033006</v>
+        <v>11035.28568409765</v>
       </c>
       <c r="S7">
-        <v>0.02701528723471833</v>
+        <v>0.1064509543833641</v>
       </c>
       <c r="T7">
-        <v>0.02701528723471833</v>
+        <v>0.1064509543833641</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>152.093394</v>
+      </c>
+      <c r="H8">
+        <v>456.280182</v>
+      </c>
+      <c r="I8">
+        <v>0.08268866520392831</v>
+      </c>
+      <c r="J8">
+        <v>0.0826886652039283</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>4.220261333333333</v>
+      </c>
+      <c r="N8">
+        <v>12.660784</v>
+      </c>
+      <c r="O8">
+        <v>0.6739259863235564</v>
+      </c>
+      <c r="P8">
+        <v>0.6739259863235564</v>
+      </c>
+      <c r="Q8">
+        <v>641.8738697536321</v>
+      </c>
+      <c r="R8">
+        <v>5776.864827782688</v>
+      </c>
+      <c r="S8">
+        <v>0.05572604025533572</v>
+      </c>
+      <c r="T8">
+        <v>0.05572604025533572</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>152.093394</v>
+      </c>
+      <c r="H9">
+        <v>456.280182</v>
+      </c>
+      <c r="I9">
+        <v>0.08268866520392831</v>
+      </c>
+      <c r="J9">
+        <v>0.0826886652039283</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.296447666666667</v>
+      </c>
+      <c r="N9">
+        <v>3.889343</v>
+      </c>
+      <c r="O9">
+        <v>0.2070274097896007</v>
+      </c>
+      <c r="P9">
+        <v>0.2070274097896007</v>
+      </c>
+      <c r="Q9">
+        <v>197.181125766714</v>
+      </c>
+      <c r="R9">
+        <v>1774.630131900426</v>
+      </c>
+      <c r="S9">
+        <v>0.01711882017612876</v>
+      </c>
+      <c r="T9">
+        <v>0.01711882017612876</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>152.093394</v>
+      </c>
+      <c r="H10">
+        <v>456.280182</v>
+      </c>
+      <c r="I10">
+        <v>0.08268866520392831</v>
+      </c>
+      <c r="J10">
+        <v>0.0826886652039283</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.745494</v>
+      </c>
+      <c r="N10">
+        <v>2.236482</v>
+      </c>
+      <c r="O10">
+        <v>0.119046603886843</v>
+      </c>
+      <c r="P10">
+        <v>0.119046603886843</v>
+      </c>
+      <c r="Q10">
+        <v>113.384712666636</v>
+      </c>
+      <c r="R10">
+        <v>1020.462413999724</v>
+      </c>
+      <c r="S10">
+        <v>0.009843804772463834</v>
+      </c>
+      <c r="T10">
+        <v>0.009843804772463832</v>
       </c>
     </row>
   </sheetData>
